--- a/*12-29-24 to 01-04-25 Madison Schedule.xlsx
+++ b/*12-29-24 to 01-04-25 Madison Schedule.xlsx
@@ -1290,7 +1290,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>6:30 am meet for Sarah, Aivy &amp; Lori at *WI Dells Walmart</t>
+          <t>6:15 am meet for Aivy &amp; Lori at Wayside Park</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Driver, Equip</t>
+          <t>@Store, Equip</t>
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>@ Store w/ Sarah</t>
+          <t>@ Store w/ Lori</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>@ WI Dells</t>
+          <t>Driver @ Portage</t>
         </is>
       </c>
       <c r="L23" t="inlineStr"/>

--- a/*12-29-24 to 01-04-25 Madison Schedule.xlsx
+++ b/*12-29-24 to 01-04-25 Madison Schedule.xlsx
@@ -1177,10 +1177,15 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Corolla</t>
+        </is>
+      </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
@@ -1254,15 +1259,10 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Corolla</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
@@ -1299,16 +1299,8 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
@@ -1398,7 +1390,11 @@
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7:00 AM START  </t>
+        </is>
+      </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
@@ -1447,7 +1443,7 @@
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t xml:space="preserve">7:00 AM START  </t>
+          <t xml:space="preserve">EXCEL FINANCIAL </t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1498,7 +1494,7 @@
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t xml:space="preserve">EXCEL FINANCIAL </t>
+          <t>MIDDLETON GOOD NEIGHBOR LIQUOR</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1554,7 +1550,7 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>MIDDLETON GOOD NEIGHBOR LIQUOR</t>
+          <t>3111 PARMENTER ST</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1597,7 +1593,7 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>3111 PARMENTER ST</t>
+          <t>https://goo.gl/maps/KiM637KSj1G2</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1636,7 +1632,7 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/KiM637KSj1G2</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -1691,7 +1687,7 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t xml:space="preserve">EXCEL FINANCIAL   </t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -1746,7 +1742,7 @@
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t xml:space="preserve">EXCEL FINANCIAL   </t>
+          <t>O'CONNELL'S LIQUOR,  FITCHBURG</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -1801,7 +1797,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>O'CONNELL'S LIQUOR,  FITCHBURG</t>
+          <t>3064 FISH HATCHERY ROAD</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -1852,7 +1848,7 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>3064 FISH HATCHERY ROAD</t>
+          <t>https://goo.gl/maps/7vadga6gPq62</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -1916,7 +1912,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7vadga6gPq62</t>
+          <t>*IL Meet is 5:30 am at IL Office</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -1973,11 +1969,7 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:30 am at IL Office</t>
-        </is>
-      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
@@ -2019,9 +2011,21 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
@@ -2065,19 +2069,15 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
@@ -2136,15 +2136,20 @@
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry 3</t>
+        </is>
+      </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
@@ -2193,22 +2198,9 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry 3</t>
-        </is>
-      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
@@ -2299,7 +2291,11 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
@@ -2361,7 +2357,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2425,7 +2421,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>O'CONNELL'S LAKESIDE LIQUOR, MONONA</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2484,7 +2480,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>O'CONNELL'S LAKESIDE LIQUOR, MONONA</t>
+          <t>6325 MONONA DRIVE</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2555,7 +2551,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>6325 MONONA DRIVE</t>
+          <t>https://goo.gl/maps/B3TANgvBHum</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2616,7 +2612,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/B3TANgvBHum</t>
+          <t>APPROX 10:00/10:30 AM START</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2655,7 +2651,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>APPROX 10:00/10:30 AM START</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2710,7 +2706,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>REDLINE MOBIL, DEFOREST</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -2765,7 +2761,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>REDLINE MOBIL, DEFOREST</t>
+          <t>937 E HOLUM ST</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -2817,7 +2813,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>937 E HOLUM ST</t>
+          <t>https://goo.gl/maps/uTZdgEKHTh12</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -2856,7 +2852,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/uTZdgEKHTh12</t>
+          <t>6:15 am meet for Sarah &amp; Aivy at Wayside Park</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -2894,11 +2890,7 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>6:15 am meet for Sarah &amp; Aivy at Wayside Park</t>
-        </is>
-      </c>
+      <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
@@ -2936,9 +2928,21 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Driver, Equip</t>
+        </is>
+      </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
@@ -2973,17 +2977,17 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>Driver, Equip</t>
+          <t>@ Store w/ Sarah</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
@@ -3032,17 +3036,17 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>@ Store w/ Sarah</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
@@ -3086,21 +3090,9 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>

--- a/*12-29-24 to 01-04-25 Madison Schedule.xlsx
+++ b/*12-29-24 to 01-04-25 Madison Schedule.xlsx
@@ -1040,7 +1040,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>@ Store, Camry 3, Equip</t>
+          <t>@ Store, Silver Van, Equip</t>
         </is>
       </c>
       <c r="X15" t="inlineStr"/>

--- a/*12-29-24 to 01-04-25 Madison Schedule.xlsx
+++ b/*12-29-24 to 01-04-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y66"/>
+  <dimension ref="A1:Y65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>Driver, 1/2
+          <t>Driver,
 Gray Van</t>
         </is>
       </c>
@@ -2209,14 +2209,12 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van,
-Help w/ training</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X36" t="inlineStr"/>
@@ -2258,12 +2256,13 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+1st Sendiks</t>
         </is>
       </c>
       <c r="X37" t="inlineStr"/>
@@ -2305,13 +2304,13 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
           <t>@ Store,
-1st Sendiks</t>
+Help w/ training</t>
         </is>
       </c>
       <c r="X38" t="inlineStr"/>
@@ -2369,13 +2368,12 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>@ Store,
-Help w/ training</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X39" t="inlineStr"/>
@@ -2433,12 +2431,12 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Until 10:00</t>
         </is>
       </c>
       <c r="X40" t="inlineStr"/>
@@ -2492,12 +2490,13 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>Until 10:00</t>
+          <t>@ Store,
+1st Sendiks</t>
         </is>
       </c>
       <c r="X41" t="inlineStr"/>
@@ -2556,22 +2555,9 @@
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>@ Store,
-1st Sendiks</t>
-        </is>
-      </c>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
     </row>
@@ -2657,7 +2643,11 @@
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>8:00 AM START</t>
+        </is>
+      </c>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
@@ -2714,7 +2704,7 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>8:00 AM START</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -2769,7 +2759,7 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>RUPESH'S STORE</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -2821,7 +2811,8 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>RUPESH'S STORE</t>
+          <t>COUNTRY STORE, 
+CALEDONIA MN</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -2860,8 +2851,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>COUNTRY STORE, 
-CALEDONIA MN</t>
+          <t>304 S HWY 44 76</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -2896,7 +2886,7 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>304 S HWY 44 76</t>
+          <t>https://maps.app.goo.gl/hF6dma6KY7vX42tF8</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -2947,7 +2937,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/hF6dma6KY7vX42tF8</t>
+          <t>*Sarah &amp; Lori - 6:15 am meet at WI Dells Walmart</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -2992,11 +2982,7 @@
       </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>*Sarah &amp; Lori - 6:15 am meet at WI Dells Walmart</t>
-        </is>
-      </c>
+      <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
@@ -3050,9 +3036,21 @@
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Driver, Equip</t>
+        </is>
+      </c>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
@@ -3096,17 +3094,17 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>Driver, Equip</t>
+          <t>@ WI Dells Walmart</t>
         </is>
       </c>
       <c r="X53" t="inlineStr"/>
@@ -3150,21 +3148,9 @@
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>@ WI Dells Walmart</t>
-        </is>
-      </c>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
     </row>
@@ -3221,7 +3207,11 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
@@ -3262,7 +3252,7 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -3301,7 +3291,7 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #43, BYRON MOBIL</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -3345,7 +3335,7 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>KELLEY #43, BYRON MOBIL</t>
+          <t>100 S UNION</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3384,7 +3374,7 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t>100 S UNION</t>
+          <t>https://goo.gl/maps/XQfApdUHTqz</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -3421,11 +3411,7 @@
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/XQfApdUHTqz</t>
-        </is>
-      </c>
+      <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
@@ -3464,9 +3450,21 @@
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
     </row>
@@ -3493,19 +3491,15 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
     </row>
@@ -3532,12 +3526,12 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
@@ -3567,52 +3561,17 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr"/>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/*12-29-24 to 01-04-25 Madison Schedule.xlsx
+++ b/*12-29-24 to 01-04-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y65"/>
+  <dimension ref="A1:Y66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1750,7 +1750,7 @@
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:30 am at IL Office</t>
+          <t>STORE RESET-REMAPPED</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -1803,7 +1803,11 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>*IL Meet is 4:30 am at IL Office</t>
+        </is>
+      </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
@@ -1853,22 +1857,9 @@
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>@ Store,
-Optima, Equip</t>
-        </is>
-      </c>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>
@@ -1919,15 +1910,20 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>@ Store,
+Optima, Equip</t>
+        </is>
+      </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
     </row>
@@ -1974,12 +1970,12 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2029,20 +2025,15 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>Driver,
-Gray Van</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
     </row>
@@ -2081,17 +2072,18 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>1st Sendiks</t>
+          <t>Driver,
+Gray Van</t>
         </is>
       </c>
       <c r="X34" t="inlineStr"/>
@@ -2153,15 +2145,19 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr"/>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>1st Sendiks</t>
+        </is>
+      </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
     </row>
@@ -2204,19 +2200,15 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
     </row>
@@ -2251,18 +2243,17 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>@ Store,
-1st Sendiks</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X37" t="inlineStr"/>
@@ -2299,18 +2290,18 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
           <t>@ Store,
-Help w/ training</t>
+1st Sendiks</t>
         </is>
       </c>
       <c r="X38" t="inlineStr"/>
@@ -2363,17 +2354,18 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Help w/ training</t>
         </is>
       </c>
       <c r="X39" t="inlineStr"/>
@@ -2426,17 +2418,17 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>Until 10:00</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X40" t="inlineStr"/>
@@ -2485,18 +2477,17 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>@ Store,
-1st Sendiks</t>
+          <t>Until 10:00</t>
         </is>
       </c>
       <c r="X41" t="inlineStr"/>
@@ -2555,9 +2546,22 @@
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>@ Store,
+1st Sendiks</t>
+        </is>
+      </c>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
     </row>
@@ -2643,11 +2647,7 @@
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>8:00 AM START</t>
-        </is>
-      </c>
+      <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
@@ -2704,7 +2704,7 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>8:00 AM START</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -2759,7 +2759,7 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>RUPESH'S STORE</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -2811,8 +2811,7 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>COUNTRY STORE, 
-CALEDONIA MN</t>
+          <t>RUPESH'S STORE</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -2851,7 +2850,8 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>304 S HWY 44 76</t>
+          <t>COUNTRY STORE, 
+CALEDONIA MN</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -2886,7 +2886,7 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/hF6dma6KY7vX42tF8</t>
+          <t>304 S HWY 44 76</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -2937,7 +2937,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>*Sarah &amp; Lori - 6:15 am meet at WI Dells Walmart</t>
+          <t>https://maps.app.goo.gl/hF6dma6KY7vX42tF8</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -2982,7 +2982,11 @@
       </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>*Sarah &amp; Lori - 6:15 am meet at WI Dells Walmart</t>
+        </is>
+      </c>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
@@ -3036,21 +3040,9 @@
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>Driver, Equip</t>
-        </is>
-      </c>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
@@ -3094,17 +3086,17 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>@ WI Dells Walmart</t>
+          <t>Driver, Equip</t>
         </is>
       </c>
       <c r="X53" t="inlineStr"/>
@@ -3148,9 +3140,21 @@
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>@ WI Dells Walmart</t>
+        </is>
+      </c>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
     </row>
@@ -3207,11 +3211,7 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
@@ -3252,7 +3252,7 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -3291,7 +3291,7 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
-          <t>KELLEY #43, BYRON MOBIL</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -3335,7 +3335,7 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>100 S UNION</t>
+          <t>KELLEY #43, BYRON MOBIL</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3374,7 +3374,7 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/XQfApdUHTqz</t>
+          <t>100 S UNION</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -3411,7 +3411,11 @@
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/XQfApdUHTqz</t>
+        </is>
+      </c>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
@@ -3450,21 +3454,9 @@
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
     </row>
@@ -3491,15 +3483,19 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
     </row>
@@ -3526,12 +3522,12 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
@@ -3561,17 +3557,52 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/*12-29-24 to 01-04-25 Madison Schedule.xlsx
+++ b/*12-29-24 to 01-04-25 Madison Schedule.xlsx
@@ -3252,7 +3252,7 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t xml:space="preserve">6:30 AM START </t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
